--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.196711</v>
+        <v>0.1433473333333333</v>
       </c>
       <c r="H2">
-        <v>0.590133</v>
+        <v>0.430042</v>
       </c>
       <c r="I2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="J2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N2">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.000573019143</v>
+        <v>0.01034790951622222</v>
       </c>
       <c r="R2">
-        <v>0.005157172287</v>
+        <v>0.09313118564599999</v>
       </c>
       <c r="S2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="T2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,10 +608,10 @@
         <v>6.715078</v>
       </c>
       <c r="I3">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="J3">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813598</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N3">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.006520340738000001</v>
+        <v>0.1615819374348889</v>
       </c>
       <c r="R3">
-        <v>0.058683066642</v>
+        <v>1.454237436914</v>
       </c>
       <c r="S3">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="T3">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2829016666666667</v>
+        <v>1.598977333333333</v>
       </c>
       <c r="H4">
-        <v>0.8487049999999999</v>
+        <v>4.796932</v>
       </c>
       <c r="I4">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="J4">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N4">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0008240925550000001</v>
+        <v>0.1154264427462222</v>
       </c>
       <c r="R4">
-        <v>0.007416832995</v>
+        <v>1.038837984716</v>
       </c>
       <c r="S4">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="T4">
-        <v>0.08217322152470656</v>
+        <v>0.362559916388583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01839066666666667</v>
+        <v>0.06293633333333333</v>
       </c>
       <c r="H5">
-        <v>0.05517200000000001</v>
+        <v>0.188809</v>
       </c>
       <c r="I5">
-        <v>0.00534185727427211</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="J5">
-        <v>0.00534185727427211</v>
+        <v>0.0142704910666676</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N5">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.357201200000001E-05</v>
+        <v>0.004543227051888889</v>
       </c>
       <c r="R5">
-        <v>0.0004821481080000001</v>
+        <v>0.040889043467</v>
       </c>
       <c r="S5">
-        <v>0.00534185727427211</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="T5">
-        <v>0.00534185727427211</v>
+        <v>0.0142704910666676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.706385</v>
+        <v>0.3666226666666666</v>
       </c>
       <c r="H6">
-        <v>2.119155</v>
+        <v>1.099868</v>
       </c>
       <c r="I6">
-        <v>0.2051805907355201</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="J6">
-        <v>0.2051805907355201</v>
+        <v>0.08312981091215758</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N6">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.002057699505</v>
+        <v>0.02646563485377777</v>
       </c>
       <c r="R6">
-        <v>0.018519295545</v>
+        <v>0.238190713684</v>
       </c>
       <c r="S6">
-        <v>0.2051805907355201</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="T6">
-        <v>0.2051805907355201</v>
+        <v>0.08312981091215758</v>
       </c>
     </row>
   </sheetData>
